--- a/Solution.xlsx
+++ b/Solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VScode\HackerRank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD72599B-9856-4E47-9F09-6F4C73AC63F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBE3EFF-143D-4A33-8AE8-5E710F661FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Problem</t>
   </si>
@@ -54,13 +54,39 @@
     <t>If we have 3 numbers of one bit.so humming distance of all can be calculated by (number of 1-bit* number of 0-bit). 
 To calculate number of 1 use: (num&amp; 1) -&gt; if it is 1 means bitCountOf1++;
 We can use these 2 formula for every ith bit. Since number is int type, we can atmost 32 bits for given number.</t>
+  </si>
+  <si>
+    <t>860. Lemonade Change</t>
+  </si>
+  <si>
+    <t>(Optimal Approach)
+We will keep track of 5$ and 10$ bills and when we need change we will use these bills and reduce count. 
+If change can not be given then we will return false.</t>
+  </si>
+  <si>
+    <t>476. Number Complement</t>
+  </si>
+  <si>
+    <t>convert given number to Binary representation using toBinaryString() method.
+Use StringBuilder to convert each 1's to 0's and vice versa.
+Convert StringBuilder to String using toString() method and then convert String to Int by Integer.parseInt() method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We find all 1's if sum of (number's binary bits and number complement bits)
+ex.,
+101 + 010 = 111 
+100010 + 011101 = 111111
+So the answer can be calculated { all 1's - number's binary bit}
+All 1's = { Integer.HighestOneBit(num)&lt;&lt; 1 -1 }
+Note: to find binary representation of all 1's is called mask.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +105,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,11 +140,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,9 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,8 +482,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://leetcode.com/problems/number-complement/" xr:uid="{D0438F7E-BA2B-4152-99CB-D508DE3B373F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>